--- a/data/gastos_destinados.xlsx
+++ b/data/gastos_destinados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>479914556.97</v>
+        <v>159971519</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500030600</v>
+        <v>500010200</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>351000000</v>
+        <v>117000000</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>117340000</v>
+        <v>21680000</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>480200000</v>
+        <v>177500000</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2185648542</v>
+        <v>728549514</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -5147,12 +5147,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Para la inclusión efectiva de mujeres, jóvenes y minorías étnicas en el proceso político.</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>GASTOS DESTINADOS PARA ACTIVIDADES CONTEMPLADAS EN EL ARTICULO 18 DE LA LEY 1475 DE 2011.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F70" t="n">
-        <v>183000000</v>
+        <v>120000000</v>
       </c>
       <c r="G70" t="n">
         <v>16</v>
@@ -5216,48 +5220,48 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>39635139</v>
+        <v>63000000</v>
       </c>
       <c r="G71" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PARTIDO POLITICO DIGNIDAD &amp; COMPROMISO</t>
+          <t>MOVIMIENTO ALIANZA DEMOCRATICA AMPLIA</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>901498707-4</t>
+          <t>901296350-1</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2296971361</t>
+          <t>188071620</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>575613050</t>
+          <t>1207700</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1721358311</t>
+          <t>186863920</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Diego Ricardo Saavedra Benedetti</t>
+          <t>PAULINO  RIASCOS RIASCOS</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>72276284</t>
+          <t>4700948</t>
         </is>
       </c>
     </row>
@@ -5284,11 +5288,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>10681247</v>
+        <v>39635139</v>
       </c>
       <c r="G72" t="n">
         <v>17</v>
@@ -5352,11 +5356,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>39975080</v>
+        <v>10681247</v>
       </c>
       <c r="G73" t="n">
         <v>17</v>
@@ -5420,11 +5424,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25088591</v>
+        <v>39975080</v>
       </c>
       <c r="G74" t="n">
         <v>17</v>
@@ -5488,48 +5492,48 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>41765543</v>
+        <v>25088591</v>
       </c>
       <c r="G75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PARTIDO NUEVO LIBERALISMO</t>
+          <t>PARTIDO POLITICO DIGNIDAD &amp; COMPROMISO</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>901537192</t>
+          <t>901498707-4</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1232809924</t>
+          <t>2296971361</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>479452998</t>
+          <t>575613050</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>753356926</t>
+          <t>1721358311</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>PHILIPP EDUARD LORENZ WODAK MENESES</t>
+          <t>Diego Ricardo Saavedra Benedetti</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1020718731</t>
+          <t>72276284</t>
         </is>
       </c>
     </row>
@@ -5556,11 +5560,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5000000</v>
+        <v>41765543</v>
       </c>
       <c r="G76" t="n">
         <v>19</v>
@@ -5624,11 +5628,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>19781400</v>
+        <v>5000000</v>
       </c>
       <c r="G77" t="n">
         <v>19</v>
@@ -5692,11 +5696,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2100000</v>
+        <v>19781400</v>
       </c>
       <c r="G78" t="n">
         <v>19</v>
@@ -5760,48 +5764,48 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>24622052</v>
+        <v>2100000</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>PARTIDO POLITICO ESPERANZA DEMOCRATICA</t>
+          <t>PARTIDO NUEVO LIBERALISMO</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>901703779-4</t>
+          <t>901537192</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>164147012</t>
+          <t>1232809924</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>122563972</t>
+          <t>479452998</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>41583040</t>
+          <t>753356926</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>NOHORA PATRICIA BURITICA CESPEDES</t>
+          <t>PHILIPP EDUARD LORENZ WODAK MENESES</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>41555960</t>
+          <t>1020718731</t>
         </is>
       </c>
     </row>
@@ -5828,48 +5832,48 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>16275400</v>
+        <v>24622052</v>
       </c>
       <c r="G80" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>PARTIDO POLITICO CREEMOS</t>
+          <t>PARTIDO POLITICO ESPERANZA DEMOCRATICA</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1152435097</t>
+          <t>901703779-4</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>603121287</t>
+          <t>164147012</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>98677146</t>
+          <t>122563972</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>701798434</t>
+          <t>41583040</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CAMILA  GAVIRIA BARRENECHE</t>
+          <t>NOHORA PATRICIA BURITICA CESPEDES</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>43222003</t>
+          <t>41555960</t>
         </is>
       </c>
     </row>
@@ -5896,48 +5900,48 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1595745</v>
+        <v>16275400</v>
       </c>
       <c r="G81" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>PARTIDO DEL TRABAJO DE COLOMBIA</t>
+          <t>PARTIDO POLITICO CREEMOS</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>901734558-6</t>
+          <t>1152435097</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>33012864</t>
+          <t>603121287</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>14298084</t>
+          <t>98677146</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>18714780</t>
+          <t>701798434</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MARCELO  TORRES BENAVIDES</t>
+          <t>CAMILA  GAVIRIA BARRENECHE</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>17138415</t>
+          <t>43222003</t>
         </is>
       </c>
     </row>
@@ -5964,11 +5968,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15000000</v>
+        <v>1595745</v>
       </c>
       <c r="G82" t="n">
         <v>35</v>
@@ -6027,49 +6031,53 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Para la inclusión efectiva de mujeres, jóvenes y minorías étnicas en el proceso político.</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>GASTOS DESTINADOS PARA ACTIVIDADES CONTEMPLADAS EN EL ARTICULO 18 DE LA LEY 1475 DE 2011.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F83" t="n">
-        <v>338900000</v>
+        <v>15000000</v>
       </c>
       <c r="G83" t="n">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>MOVIMIENTO POLITICO COLOMBIA HUMANA</t>
+          <t>PARTIDO DEL TRABAJO DE COLOMBIA</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>901557983-4</t>
+          <t>901734558-6</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>14831520075</t>
+          <t>33012864</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3367000000</t>
+          <t>14298084</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>11464520075</t>
+          <t>18714780</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CARMEN CECILIA ANACHURY DIAZ</t>
+          <t>MARCELO  TORRES BENAVIDES</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>45448391</t>
+          <t>17138415</t>
         </is>
       </c>
     </row>
@@ -6091,53 +6099,49 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>GASTOS DESTINADOS PARA ACTIVIDADES CONTEMPLADAS EN EL ARTICULO 18 DE LA LEY 1475 DE 2011.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Para la inclusión efectiva de mujeres, jóvenes y minorías étnicas en el proceso político.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>18300000</v>
+        <v>338900000</v>
       </c>
       <c r="G84" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>MOVIMIENTO DE SALVACION NACIONAL</t>
+          <t>MOVIMIENTO POLITICO COLOMBIA HUMANA</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>901549634-5</t>
+          <t>901557983-4</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>82358552</t>
+          <t>14831520075</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>80899668</t>
+          <t>3367000000</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1458884</t>
+          <t>11464520075</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>JUAN DAVID URIBE VELASQUEZ</t>
+          <t>CARMEN CECILIA ANACHURY DIAZ</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>8026904</t>
+          <t>45448391</t>
         </is>
       </c>
     </row>
@@ -6164,11 +6168,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5000000</v>
+        <v>18300000</v>
       </c>
       <c r="G85" t="n">
         <v>302</v>
@@ -6232,11 +6236,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
       <c r="G86" t="n">
         <v>302</v>
@@ -6300,7 +6304,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6368,48 +6372,48 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>94932941.18000001</v>
+        <v>9000000</v>
       </c>
       <c r="G88" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PARTIDO COMUNISTA COLOMBIANO</t>
+          <t>MOVIMIENTO DE SALVACION NACIONAL</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>800072089-5</t>
+          <t>901549634-5</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1164564529</t>
+          <t>82358552</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>58156783</t>
+          <t>80899668</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1106407749</t>
+          <t>1458884</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>JAIME  CAICEDO TURRIAGO</t>
+          <t>JUAN DAVID URIBE VELASQUEZ</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>17141874</t>
+          <t>8026904</t>
         </is>
       </c>
     </row>
@@ -6436,11 +6440,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>40436996</v>
+        <v>94932941.18000001</v>
       </c>
       <c r="G89" t="n">
         <v>303</v>
@@ -6504,11 +6508,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>7184872</v>
+        <v>40436996</v>
       </c>
       <c r="G90" t="n">
         <v>303</v>
@@ -6572,11 +6576,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>10204968</v>
+        <v>7184872</v>
       </c>
       <c r="G91" t="n">
         <v>303</v>
@@ -6640,11 +6644,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>969960</v>
+        <v>10204968</v>
       </c>
       <c r="G92" t="n">
         <v>303</v>
@@ -6708,48 +6712,48 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3600000</v>
+        <v>969960</v>
       </c>
       <c r="G93" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>PARTIDO VERDE OXIGENO</t>
+          <t>PARTIDO COMUNISTA COLOMBIANO</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>830048132-2</t>
+          <t>800072089-5</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>962993021</t>
+          <t>1164564529</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>4101154</t>
+          <t>58156783</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>958891867</t>
+          <t>1106407749</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>JAIME  JARAMILLO GIRALDO</t>
+          <t>JAIME  CAICEDO TURRIAGO</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>17132987</t>
+          <t>17141874</t>
         </is>
       </c>
     </row>
@@ -6776,11 +6780,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>15000000</v>
+        <v>3600000</v>
       </c>
       <c r="G94" t="n">
         <v>304</v>
@@ -6844,11 +6848,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>95764901.29000001</v>
+        <v>15000000</v>
       </c>
       <c r="G95" t="n">
         <v>304</v>
@@ -6912,48 +6916,48 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>137031440</v>
+        <v>95764901.29000001</v>
       </c>
       <c r="G96" t="n">
-        <v>610</v>
+        <v>304</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>PARTIDO UNION PATRIOTICA "UP"</t>
+          <t>PARTIDO VERDE OXIGENO</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>900682688-7</t>
+          <t>830048132-2</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>888006733</t>
+          <t>962993021</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>584939676</t>
+          <t>4101154</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>303067057</t>
+          <t>958891867</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>GABRIEL  BECERRA YAÑEZ</t>
+          <t>JAIME  JARAMILLO GIRALDO</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>88218050</t>
+          <t>17132987</t>
         </is>
       </c>
     </row>
@@ -6980,11 +6984,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>168540000</v>
+        <v>137031440</v>
       </c>
       <c r="G97" t="n">
         <v>610</v>
@@ -7048,11 +7052,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4598800</v>
+        <v>168540000</v>
       </c>
       <c r="G98" t="n">
         <v>610</v>
@@ -7116,11 +7120,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>83322930</v>
+        <v>4598800</v>
       </c>
       <c r="G99" t="n">
         <v>610</v>
@@ -7184,11 +7188,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>56756020.72</v>
+        <v>83322930</v>
       </c>
       <c r="G100" t="n">
         <v>610</v>
@@ -7252,11 +7256,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>767750</v>
+        <v>56756020.72</v>
       </c>
       <c r="G101" t="n">
         <v>610</v>
@@ -7320,48 +7324,48 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>13500000</v>
+        <v>767750</v>
       </c>
       <c r="G102" t="n">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>AGRUPACION POLITICA EN MARCHA</t>
+          <t>PARTIDO UNION PATRIOTICA "UP"</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>901728812-8</t>
+          <t>900682688-7</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>409210415</t>
+          <t>888006733</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>515827563</t>
+          <t>584939676</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-106617148</t>
+          <t>303067057</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>EDUARDO  TORRES NARANJO</t>
+          <t>GABRIEL  BECERRA YAÑEZ</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>1020831677</t>
+          <t>88218050</t>
         </is>
       </c>
     </row>
@@ -7388,11 +7392,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7500000</v>
+        <v>13500000</v>
       </c>
       <c r="G103" t="n">
         <v>628</v>
@@ -7456,11 +7460,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4500000</v>
+        <v>7500000</v>
       </c>
       <c r="G104" t="n">
         <v>628</v>
@@ -7524,48 +7528,48 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>28433200</v>
+        <v>4500000</v>
       </c>
       <c r="G105" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>NUEVA FUERZA DEMOCRATICA</t>
+          <t>AGRUPACION POLITICA EN MARCHA</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>901698469-4</t>
+          <t>901728812-8</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>4792757</t>
+          <t>409210415</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>91303748</t>
+          <t>515827563</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-86510991</t>
+          <t>-106617148</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CAMILO ALBERTO GOMEZ ALZATE</t>
+          <t>EDUARDO  TORRES NARANJO</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>19472289</t>
+          <t>1020831677</t>
         </is>
       </c>
     </row>
@@ -7592,48 +7596,48 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40374000</v>
+        <v>28433200</v>
       </c>
       <c r="G106" t="n">
-        <v>5001</v>
+        <v>629</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>PARTIDO DEMOCRATA COLOMBIANO</t>
+          <t>NUEVA FUERZA DEMOCRATICA</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>9016232173</t>
+          <t>901698469-4</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>98777000</t>
+          <t>4792757</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91303748</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>98777000</t>
+          <t>-86510991</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>PEDRO ADAN TORRES PEREZ</t>
+          <t>CAMILO ALBERTO GOMEZ ALZATE</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>72219107</t>
+          <t>19472289</t>
         </is>
       </c>
     </row>
@@ -7660,48 +7664,48 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>14000000</v>
+        <v>40374000</v>
       </c>
       <c r="G107" t="n">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PARTIDO ECOLOGISTA COLOMBIANO</t>
+          <t>PARTIDO DEMOCRATA COLOMBIANO</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>9016232173</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>24713</t>
+          <t>98777000</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>22807597</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>-22782884</t>
+          <t>98777000</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>NEY GREGORIO NAVARRO JARAMILLO</t>
+          <t>PEDRO ADAN TORRES PEREZ</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>19562129</t>
+          <t>72219107</t>
         </is>
       </c>
     </row>
@@ -7728,11 +7732,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>26520000</v>
+        <v>14000000</v>
       </c>
       <c r="G108" t="n">
         <v>5002</v>
@@ -7796,11 +7800,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>8000000</v>
+        <v>26520000</v>
       </c>
       <c r="G109" t="n">
         <v>5002</v>
@@ -7859,49 +7863,53 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Para la inclusión efectiva de mujeres, jóvenes y minorías étnicas en el proceso político.</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>GASTOS DESTINADOS PARA ACTIVIDADES CONTEMPLADAS EN EL ARTICULO 18 DE LA LEY 1475 DE 2011.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="F110" t="n">
-        <v>73950000</v>
+        <v>8000000</v>
       </c>
       <c r="G110" t="n">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>PARTIDO POLITICO LA FUERZA DE LA PAZ</t>
+          <t>PARTIDO ECOLOGISTA COLOMBIANO</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>5436</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24713</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>1030286172</t>
+          <t>22807597</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-281882616</t>
+          <t>-22782884</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>VICTOR HUGO GOLU MONTENEGRO</t>
+          <t>NEY GREGORIO NAVARRO JARAMILLO</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>1130653736</t>
+          <t>19562129</t>
         </is>
       </c>
     </row>
@@ -7923,53 +7931,49 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>GASTOS DESTINADOS PARA ACTIVIDADES CONTEMPLADAS EN EL ARTICULO 18 DE LA LEY 1475 DE 2011.</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Para la inclusión efectiva de mujeres, jóvenes y minorías étnicas en el proceso político.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>23036933</v>
+        <v>73950000</v>
       </c>
       <c r="G111" t="n">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>PARTIDO LIGA GOBERNANTES ANTICORRUPCION</t>
+          <t>PARTIDO POLITICO LA FUERZA DE LA PAZ</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>901621722-2</t>
+          <t>5436</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>266536164</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>201521574</t>
+          <t>1030286172</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>65014590</t>
+          <t>-281882616</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>JUAN CAMILO BARBOSA JAIMES</t>
+          <t>VICTOR HUGO GOLU MONTENEGRO</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>1095840235</t>
+          <t>1130653736</t>
         </is>
       </c>
     </row>
@@ -7996,11 +8000,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>10250000</v>
+        <v>23036933</v>
       </c>
       <c r="G112" t="n">
         <v>5005</v>
@@ -8064,11 +8068,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>58800000</v>
+        <v>10250000</v>
       </c>
       <c r="G113" t="n">
         <v>5005</v>
@@ -8132,11 +8136,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2127720</v>
+        <v>58800000</v>
       </c>
       <c r="G114" t="n">
         <v>5005</v>
@@ -8172,6 +8176,74 @@
         </is>
       </c>
       <c r="N114" t="inlineStr">
+        <is>
+          <t>1095840235</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TOTAL DE GASTOS ANUALES</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GASTOS DESTINADOS PARA ACTIVIDADES CONTEMPLADAS EN EL ARTICULO 18 DE LA LEY 1475 DE 2011.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2127720</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5005</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>PARTIDO LIGA GOBERNANTES ANTICORRUPCION</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>901621722-2</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>266536164</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>201521574</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>65014590</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>JUAN CAMILO BARBOSA JAIMES</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
         <is>
           <t>1095840235</t>
         </is>

--- a/data/gastos_destinados.xlsx
+++ b/data/gastos_destinados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
